--- a/biology/Médecine/Phlebotominae/Phlebotominae.xlsx
+++ b/biology/Médecine/Phlebotominae/Phlebotominae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Phlebotominae, ou phlébotomes, sont une sous-famille d'insectes de l’ordre des diptères, du sous-ordre des nématocères, de la super-famille des Psychodoidea (Lameere, 1936) et de la famille des Psychodidae.
 Ce sont de tout petits insectes hématophages, qui peuvent être vecteurs de pathogènes de la santé humaine (bartonellose, arbovirose, leishmaniose) des genres Leishmania, Bartonella, Phlebovirus et Vesiculovirus.
@@ -512,7 +524,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification des genres se fonde sur le nombre et la structure des segments des antennes et des palpes et sur le nombre et la disposition des nervures alaires (Rondani, 1843). À l'origine, le seul genre Phlebotomus Rondani regroupait toutes les espèces de Phlebotominae. En 1948, Theobald proposa la division de ce genre entre les espèces de l'ancien monde et celles du nouveau monde en quatre genres : Phlebotomus et Sergentomyia pour les espèces de la région paléarctique et Lutzomyia et Brumptomyia pour celles des régions néarctique et néotropicales.
 Cette sous-famille est depuis divisée en six genres :
@@ -551,7 +565,9 @@
           <t>Éthologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L’observation des phlébotomes est difficile en raison de leur petite taille, leur couleur pâle et leur vol rapide et saccadé. Ils fréquentent de plus des lieux obscurs, et la brièveté de leurs déplacements les rend discrets.
 La découverte des larves est encore plus délicate : elles vivent en général dans des milieux peu accessibles et sont parfois enterrées dans des détritus organiques divers.
@@ -592,7 +608,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Si l'on rencontre les Phlébotomes sur tous les continents, ils ne dépassent cependant pas certaines latitudes. Très rares en Amérique du Nord et peu abondants en Australie, leur présence n'est pas signalée dans les pays nordiques. Ils sont, a contrario, fréquents dans le Bassin méditerranéen et en Afrique du Nord. Mais c'est dans les zones tropicales et subtropicales de l’Afrique, en Amérique du Sud et en Asie qu'on les trouve en plus grand nombre.
 En France :
@@ -625,7 +643,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Genre Brumptomyia (24 espèces) :
 Brumptomyia avellari (Costa Lima, 1942)
@@ -690,7 +710,7 @@
 Phlebotomus (Anaphlebotomus) huberti Depaquit, Léger &amp; Robert 2002
 Phlebotomus (Anaphlebotomus) rodhaini Parrot, 1930
 Phlebotomus (Anaphlebotomus) rousettus Davidson, 1981
-Phlebotomus (Anaphlebotomus) vaomalalae Randrianambinintsoa, Léger &amp; Depaquit, 2013[1]
+Phlebotomus (Anaphlebotomus) vaomalalae Randrianambinintsoa, Léger &amp; Depaquit, 2013
 Phlebotomus (Larroussius) aculeatus Lewis, Minter &amp; Ashford, 1974
 Phlebotomus (Larroussius) ashfordi Gebre-Michael &amp; Lane, 1996
 Phlebotomus (Larroussius) elgonensis Ngoka, Madel &amp; Mutinga, 1975
@@ -700,7 +720,7 @@
 Phlebotomus (Larroussius) longipes Parrot &amp; Martin, 1939
 Phlebotomus (Larroussius) orientalis Parrot, 1936
 Phlebotomus (Larroussius) pedifer Lewis, Mutinga &amp; Ashford, 1972
-Phlebotomus (Larroussius) perfiliewi Parrot, 1939[2]
+Phlebotomus (Larroussius) perfiliewi Parrot, 1939
 Phlebotomus (Larroussius) somaliensis Abonnenc, Adam &amp; Bailly-Choumara, 1959
 Phlebotomus (Paraphlebotomus) alexandri Sinton, 1928
 Phlebotomus (Paraphlebotomus) mireillae Killick-Kendrick, 1997
@@ -752,13 +772,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Leishmaniose
+          <t>Leishmaniose</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Le phlébotome est un insecte vecteur. S'il est infecté, sa piqûre transmet la leishmaniose ; seulement certaines espèces sont des vecteurs prouvés de la Leishmaniose.
 En Europe, le réservoir est le chien. C'est lui qui est principalement touché par la maladie. Les cas humains restent rares.
 En Amérique du Sud (Guyane), le paresseux à deux doigts (unau) Choloepus didactylus (Linnaeus, 1758) est le réservoir du protozoaire Leishmania braziliensis guyanensis responsable de leishmanioses cutanées du type espundia. La transmission s'effectue par un autre phlébotome, Lutzomyia umbratilis.
-Autres maladies
-La fièvre Oroya se rencontre au Pérou. Elle est due à une bactérie, Bartonella bacilliformis.
-La fièvre pappataci (sandfly fever) est due à un virus du groupe des Bunyaviridae.</t>
+</t>
         </is>
       </c>
     </row>
@@ -783,10 +807,49 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Insectes vecteurs</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autres maladies</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La fièvre Oroya se rencontre au Pérou. Elle est due à une bactérie, Bartonella bacilliformis.
+La fièvre pappataci (sandfly fever) est due à un virus du groupe des Bunyaviridae.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Phlebotominae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phlebotominae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Anecdotes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Le phlébotome est utilisé comme une injure par le Capitaine Haddock dans la bande dessinée Tintin.</t>
         </is>
